--- a/SEGUNDO_SEMESTRE/Estadistica/FernandaNunez/dif_semanal_rcommunis_2.xlsx
+++ b/SEGUNDO_SEMESTRE/Estadistica/FernandaNunez/dif_semanal_rcommunis_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25fe2a06eeca41a/Documentos/MCD/SEGUNDO_SEMESTRE/Estadistica/FernandaNunez/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\OneDrive\Documentos\MCD\SEGUNDO_SEMESTRE\Estadistica\FernandaNunez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8814F8-192B-44AE-8296-B0320107EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB9EFD2-B6E4-4D0F-A83F-8FC564C7551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A298C75-F9BE-421B-944E-C367ACE69355}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>Réplica</t>
   </si>
@@ -417,11 +417,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE189A1-AC5F-4E24-9D08-8A1583C3D76D}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -455,7 +453,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -464,12 +462,12 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -478,12 +476,12 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -492,12 +490,12 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -511,7 +509,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -520,12 +518,12 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -534,12 +532,12 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -548,40 +546,40 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -595,27 +593,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -623,13 +621,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -637,13 +635,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -651,13 +649,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -665,477 +663,225 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
         <v>0.5</v>
       </c>
     </row>
